--- a/sd-questionnaire/ig/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/sd-questionnaire/ig/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T13:35:20+00:00</t>
+    <t>2024-02-06T14:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
